--- a/fin.xlsx
+++ b/fin.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepanbokarev/Documents/GitHub/HomeTaskLMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA4CBF-61BA-7243-8001-309597A842F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C475D61-CBA3-304B-850D-A68D3409C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{984D0FDC-26B7-A74A-BD85-97DEBA7893C4}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="17320" xr2:uid="{984D0FDC-26B7-A74A-BD85-97DEBA7893C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
+    <sheet name="OPEX CAPEX" sheetId="2" r:id="rId2"/>
+    <sheet name="Года и пользователи" sheetId="4" r:id="rId3"/>
+    <sheet name="Доходы" sheetId="5" r:id="rId4"/>
+    <sheet name="USER" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>Тех. Стек. № 1</t>
   </si>
@@ -240,21 +243,148 @@
     <t>Cloud.ru (облако)</t>
   </si>
   <si>
-    <t>Зарплата команды (25 чел)</t>
-  </si>
-  <si>
     <t>Аренда сервера</t>
+  </si>
+  <si>
+    <t>Сумма затрат</t>
+  </si>
+  <si>
+    <t>Зарплата команды (чел)</t>
+  </si>
+  <si>
+    <t>Администрирование</t>
+  </si>
+  <si>
+    <t>Обновления и лицензии</t>
+  </si>
+  <si>
+    <t>Обучение персонала</t>
+  </si>
+  <si>
+    <t>Мониторинг и аналитика</t>
+  </si>
+  <si>
+    <t>Поддержка ПО (чел)</t>
+  </si>
+  <si>
+    <t>Нагрузка на LMS</t>
+  </si>
+  <si>
+    <t>MAU (Monthly Active Users)</t>
+  </si>
+  <si>
+    <t>DAY (Daily Active Users) </t>
+  </si>
+  <si>
+    <t>RPS — Requests Per Second</t>
+  </si>
+  <si>
+    <t>RPD — Requests Per Day</t>
+  </si>
+  <si>
+    <t>Метрика</t>
+  </si>
+  <si>
+    <t>Максимум за день</t>
+  </si>
+  <si>
+    <t>Среднее за месяц</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Чистая прибыль</t>
+  </si>
+  <si>
+    <t>Общее кол-во пользователей</t>
+  </si>
+  <si>
+    <t>Операционные затраты</t>
+  </si>
+  <si>
+    <t>Общий доход</t>
+  </si>
+  <si>
+    <t>Количество компаний</t>
+  </si>
+  <si>
+    <t>Количество вузов, школ</t>
+  </si>
+  <si>
+    <t>Доход по тарифу "Корпоративный"</t>
+  </si>
+  <si>
+    <t>Доход по тарифу "Государственный"</t>
+  </si>
+  <si>
+    <t>Кол-во компаний в России (средний и крупный)</t>
+  </si>
+  <si>
+    <t>Процент нуждающихся в LMS</t>
+  </si>
+  <si>
+    <t>Кол-во вузов в России</t>
+  </si>
+  <si>
+    <t>Кол-во школ в России</t>
+  </si>
+  <si>
+    <t>Токенов на пользователя в год</t>
+  </si>
+  <si>
+    <t>Цена за 1000 токенов</t>
+  </si>
+  <si>
+    <t>Доля рынка 40%</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Средний чек бизнеса (руб) / год</t>
+  </si>
+  <si>
+    <t>Средний чек вуза, школы (руб) / год</t>
+  </si>
+  <si>
+    <t>Пользователей на компанию (ср. знач)</t>
+  </si>
+  <si>
+    <t>Пользователей на вуз/школу (ср. знач)</t>
+  </si>
+  <si>
+    <t>Доля рынка 3%</t>
+  </si>
+  <si>
+    <t>Процент достижения KPI</t>
+  </si>
+  <si>
+    <t>Чистая прибыль (млрд)</t>
+  </si>
+  <si>
+    <t>15 мес</t>
+  </si>
+  <si>
+    <t>5 мес</t>
+  </si>
+  <si>
+    <t>10 мес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;RUB&quot;_-;\-* #,##0.00\ &quot;RUB&quot;_-;_-* &quot;-&quot;??\ &quot;RUB&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;RUB&quot;_-;\-* #,##0\ &quot;RUB&quot;_-;_-* &quot;-&quot;??\ &quot;RUB&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;RUB&quot;_-;\-* #,##0\ &quot;RUB&quot;_-;_-* &quot;-&quot;??\ &quot;RUB&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,6 +402,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -312,28 +456,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{435F6AEB-F6A7-6E4F-A2E6-B72A28D476C1}"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency 2" xfId="4" xr:uid="{C57E9A4C-432C-1641-9716-CD24F5891C91}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{AF8255AE-E7D5-A44E-AC11-B8D59AF03FA4}"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFF3B43"/>
     </mruColors>
   </colors>
@@ -346,6 +532,3784 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Года и пользователи'!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Общее кол-во пользователей</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="05E183"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                  <a:alpha val="24000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="90000"/>
+                    <a:alpha val="24000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8410-5B4F-A044-45D6B9166D98}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$L$13:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25030600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250051000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500255000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>751020000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>876530000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002040000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8410-5B4F-A044-45D6B9166D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2112119536"/>
+        <c:axId val="2112119952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2112119536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112119952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2112119952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2112119536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>График точки безубыточности</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Года и пользователи'!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Чистая прибыль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="05E183"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$M$13:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ "₽"_-;\-* #\ ##0\ "₽"_-;_-* "-"??\ "₽"_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-17602303000.000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45169301000.000122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49176349999.999512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371735999999.99951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>432603999999.99951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493471999999.99951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-272A-2446-8EEB-58E6E9455F64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2079806832"/>
+        <c:axId val="2079808912"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="2079806832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="32000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2079808912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2079808912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="159000000"/>
+          <c:min val="-21000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;₽&quot;* #,##0_);_(&quot;₽&quot;* \(#,##0\);_(&quot;₽&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2079806832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="30000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>График общего дохода и чистой прибыли</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Года и пользователи'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Общий доход</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="05E183"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$J$13:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ "₽"_-;\-* #\ ##0\ "₽"_-;_-* "-"??\ "₽"_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>70006426000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>830012699000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800068849999.9998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000306000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3500459000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000612000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9BA-194C-9DBB-D81232B4BD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2112073920"/>
+        <c:axId val="2112074336"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Года и пользователи'!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Чистая прибыль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$M$13:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ "₽"_-;\-* #\ ##0\ "₽"_-;_-* "-"??\ "₽"_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-17602303000.000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45169301000.000122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49176349999.999512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371735999999.99951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>432603999999.99951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493471999999.99951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9BA-194C-9DBB-D81232B4BD89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2112073920"/>
+        <c:axId val="2112074336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2112073920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112074336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2112074336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="159000000"/>
+          <c:min val="-21000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;₽&quot;* #,##0_);_(&quot;₽&quot;* \(#,##0\);_(&quot;₽&quot;* &quot;-&quot;_);_(@_)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112073920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50000000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Года и пользователи'!$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Чистая прибыль (млрд)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Года и пользователи'!$N$13:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0\ "₽"_-;\-* #\ ##0\ "₽"_-;_-* "-"??\ "₽"_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-17602.303000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45169.301000000123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49176.349999999511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371735.99999999953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>432603.99999999953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>493471.99999999953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88F5-F749-87AC-4CB381F58CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="493543040"/>
+        <c:axId val="493544752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="493543040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493544752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493544752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493543040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="281">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C03A18-BC67-684C-AA0D-39C064CEB0A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1732808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361591</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28779</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9991BEA-64A4-ED40-B4DD-EB383223EB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364901</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96591</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>137375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCA68B9-A6DC-5F4E-A37A-73F5EDFFD200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2166170" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583305AB-75CE-294C-AC41-178EEC030AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3544794" y="3810000"/>
+          <a:ext cx="2166170" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="1"/>
+            <a:t>Общее</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" b="1" baseline="0"/>
+            <a:t> кол-во пользователей</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>505603</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213264</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE3807F-1CF4-6FE7-0654-8EA7D603AA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,15 +4631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32C3E1-3267-394D-957D-229CC4052E71}">
   <dimension ref="C4:E29"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,12 +4647,10 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -718,6 +4680,10 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" s="7">
+        <f>'OPEX CAPEX'!D11</f>
+        <v>175375000</v>
+      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
@@ -731,6 +4697,9 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
@@ -744,12 +4713,10 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -775,12 +4742,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="7">
+        <f>'OPEX CAPEX'!D20</f>
+        <v>43580000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -788,12 +4759,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -801,18 +4775,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -820,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -828,7 +4799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -836,12 +4807,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="7">
+        <f>'OPEX CAPEX'!D29</f>
+        <v>27650000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -849,12 +4824,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -869,10 +4847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B5BFF5-1DA5-8A4E-B0DC-96FDCA4631CB}">
-  <dimension ref="C5:J44"/>
+  <dimension ref="C5:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="D1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,17 +4861,20 @@
     <col min="7" max="7" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +4882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +4901,14 @@
       <c r="I7" s="5">
         <v>216000</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -938,14 +4925,24 @@
       <c r="I8" s="5">
         <v>129000</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <f>L8*200000</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
-        <f>SUM(I41:I42)</f>
-        <v>5600000</v>
+        <f>SUM(M8:M14)</f>
+        <v>14350000</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>62</v>
@@ -956,13 +4953,22 @@
       <c r="I9" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="7">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>50000</v>
+        <v>450000</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
@@ -973,8 +4979,25 @@
       <c r="I10" s="5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="7">
+        <f>L10*150000</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D10+D8+12*D9</f>
+        <v>175375000</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
@@ -984,8 +5007,17 @@
       <c r="I11" s="5">
         <v>900000</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
@@ -995,8 +5027,14 @@
       <c r="I12" s="5">
         <v>70000</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1009,8 +5047,14 @@
       <c r="J13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1020,8 +5064,14 @@
       <c r="I14" s="5">
         <v>140000</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,11 +5081,11 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -1046,14 +5096,18 @@
       <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5">
-        <f>SUM(I41:I42)</f>
-        <v>5600000</v>
+        <f>SUM(M19:M25)</f>
+        <v>3500000</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
@@ -1064,13 +5118,19 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>34</v>
@@ -1081,8 +5141,25 @@
       <c r="I19" s="5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7">
+        <f>L19*200000</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="5">
+        <f>D19+D17+12*D18</f>
+        <v>43580000</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1092,8 +5169,17 @@
       <c r="I20" s="7">
         <v>20000</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="7">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1103,8 +5189,18 @@
       <c r="I21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <f>L21*150000</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,8 +5210,14 @@
       <c r="I22" s="5">
         <v>900000</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1125,8 +5227,14 @@
       <c r="I23" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1136,8 +5244,14 @@
       <c r="I24" s="7">
         <v>300000</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +5270,14 @@
       <c r="I25" s="7">
         <v>140000</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>17</v>
       </c>
@@ -1166,36 +5286,47 @@
         <v>1200000</v>
       </c>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="5">
-        <f>SUM(I41:I42)</f>
-        <v>5600000</v>
+        <f>SUM(M31:M37)</f>
+        <v>2200000</v>
       </c>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="7">
         <v>50000</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5">
+        <f>D28+D26+12*D27</f>
+        <v>27650000</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1205,8 +5336,14 @@
       <c r="I30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1216,8 +5353,18 @@
       <c r="I31" s="7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31" s="7">
+        <f>L31*200000</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="G32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1227,8 +5374,17 @@
       <c r="I32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" s="7">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1238,8 +5394,17 @@
       <c r="I33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1249,8 +5414,14 @@
       <c r="I34" s="7">
         <v>400000</v>
       </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1260,8 +5431,14 @@
       <c r="I35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1271,8 +5448,14 @@
       <c r="I36" s="7">
         <v>600000</v>
       </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G37" s="1" t="s">
         <v>46</v>
       </c>
@@ -1282,41 +5465,628 @@
       <c r="I37" s="7">
         <v>100000</v>
       </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41">
-        <v>25</v>
-      </c>
-      <c r="I41" s="7">
-        <f>H41*200000</f>
+    <row r="43" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEC5D8D-99FF-6545-A6A3-C5910329A6A1}">
+  <dimension ref="D1:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="D4" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="8.83203125" style="11"/>
+    <col min="4" max="4" width="62.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="20">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="21">
         <v>5000000</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="7">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="6"/>
+    <row r="7" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="E12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="11">
+        <v>2025</v>
+      </c>
+      <c r="F13" s="15">
+        <f>$E$6*0.01</f>
+        <v>50000</v>
+      </c>
+      <c r="G13" s="15">
+        <f>($E$8+$E$9)*0.0006</f>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="H13" s="14">
+        <f>F13*$E$2</f>
+        <v>100000000000</v>
+      </c>
+      <c r="I13" s="14">
+        <f>G13*$E$4</f>
+        <v>9180000</v>
+      </c>
+      <c r="J13" s="12">
+        <f>(H13+I13)*$H$1</f>
+        <v>70006426000</v>
+      </c>
+      <c r="K13" s="12">
+        <f>($E$3*F13+$E$5*G13)*$E$10*$E$11 + 'OPEX CAPEX'!D17+'OPEX CAPEX'!D19*1.7</f>
+        <v>87608729000.000015</v>
+      </c>
+      <c r="L13" s="13">
+        <f>$E$3*F13+$E$5*G13</f>
+        <v>25030600</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" ref="M13:M18" si="0">J13-K13</f>
+        <v>-17602303000.000015</v>
+      </c>
+      <c r="N13" s="12">
+        <f>M13/1000000</f>
+        <v>-17602.303000000014</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" s="11">
+        <v>2026</v>
+      </c>
+      <c r="F14" s="15">
+        <f>$E$6*0.1</f>
+        <v>500000</v>
+      </c>
+      <c r="G14" s="15">
+        <f>($E$8+$E$9)*0.001</f>
+        <v>51</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" ref="H14:H18" si="1">F14*$E$2</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" ref="I14:I18" si="2">G14*$E$4</f>
+        <v>15300000</v>
+      </c>
+      <c r="J14" s="12">
+        <f>(H14+I14)*($H$1+0.13)</f>
+        <v>830012699000</v>
+      </c>
+      <c r="K14" s="12">
+        <f>($E$3*F14+$E$5*G14)*$E$10*$E$11+'OPEX CAPEX'!D18</f>
+        <v>875182000000.00012</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L18" si="3">$E$3*F14+$E$5*G14</f>
+        <v>250051000</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>-45169301000.000122</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" ref="N14:N18" si="4">M14/1000000</f>
+        <v>-45169.301000000123</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" s="11">
+        <v>2027</v>
+      </c>
+      <c r="F15" s="15">
+        <f>$E$6*0.2</f>
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="15">
+        <f>($E$8+$E$9)*0.005</f>
+        <v>255</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>2000000000000</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="2"/>
+        <v>76500000</v>
+      </c>
+      <c r="J15" s="12">
+        <f>(H15+I15)*($H$1+0.2)</f>
+        <v>1800068849999.9998</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" ref="K15:K18" si="5">($E$3*F15+$E$5*G15)*$E$10*$E$11</f>
+        <v>1750892500000.0002</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>500255000</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="0"/>
+        <v>49176349999.999512</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="4"/>
+        <v>49176.349999999511</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="11">
+        <v>2028</v>
+      </c>
+      <c r="F16" s="15">
+        <f>$E$6*0.3</f>
+        <v>1500000</v>
+      </c>
+      <c r="G16" s="15">
+        <f>($E$8+$E$9)*0.02</f>
+        <v>1020</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>3000000000000</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="2"/>
+        <v>306000000</v>
+      </c>
+      <c r="J16" s="12">
+        <f>(H16+I16)*($H$1+0.3)</f>
+        <v>3000306000000</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="5"/>
+        <v>2628570000000.0005</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="3"/>
+        <v>751020000</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="0"/>
+        <v>371735999999.99951</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="4"/>
+        <v>371735.99999999953</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" s="11">
+        <v>2029</v>
+      </c>
+      <c r="F17" s="15">
+        <f>$E$6*0.35</f>
+        <v>1750000</v>
+      </c>
+      <c r="G17" s="15">
+        <f>($E$8+$E$9)*0.03</f>
+        <v>1530</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>3500000000000</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="2"/>
+        <v>459000000</v>
+      </c>
+      <c r="J17" s="12">
+        <f>(H17+I17)*($H$1+0.3)</f>
+        <v>3500459000000</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="5"/>
+        <v>3067855000000.0005</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="3"/>
+        <v>876530000</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="0"/>
+        <v>432603999999.99951</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="4"/>
+        <v>432603.99999999953</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" s="11">
+        <v>2030</v>
+      </c>
+      <c r="F18" s="15">
+        <f>$E$6*0.4</f>
+        <v>2000000</v>
+      </c>
+      <c r="G18" s="15">
+        <f>($E$8+$E$9)*0.04</f>
+        <v>2040</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>4000000000000</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="2"/>
+        <v>612000000</v>
+      </c>
+      <c r="J18" s="12">
+        <f>(H18+I18)*($H$1+0.3)</f>
+        <v>4000612000000</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="5"/>
+        <v>3507140000000.0005</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="3"/>
+        <v>1002040000</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="0"/>
+        <v>493471999999.99951</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="4"/>
+        <v>493471.99999999953</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M13:M18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFE3C4-60F6-9B41-BBCF-AA1542851CD8}">
+  <dimension ref="G3:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB034F9F-C244-3445-8CB0-2CF30825377F}">
+  <dimension ref="C4:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9">
+        <v>500</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
